--- a/tests/dados.xlsx
+++ b/tests/dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/465e8611b6f9fdff/ATOMS/Saft/SAFT-final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/465e8611b6f9fdff/GitHub/pc-jax-saft/tony_saft_jax/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_F25DC773A252ABDACC10483D89DE52845BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D09CA86-D23A-42F8-9AAC-BC5DA273C80D}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_F25DC773A252ABDACC10483D89DE52845BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{892D0761-61D1-4C57-A31E-F45D9A05E0CE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="13176" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metano" sheetId="3" r:id="rId1"/>
@@ -99,9 +99,6 @@
     <t>Temp</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>272.67</t>
   </si>
   <si>
@@ -1561,6 +1558,9 @@
   </si>
   <si>
     <t>2.4952</t>
+  </si>
+  <si>
+    <t>temp</t>
   </si>
 </sst>
 </file>
@@ -1988,9 +1988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81ED3926-79BC-478F-AFD7-86464B940191}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="E1:F11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2001,7 +1999,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>491</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -2160,34 +2158,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" t="s">
         <v>286</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>287</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>288</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>289</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>290</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>291</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>292</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>293</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>294</v>
-      </c>
-      <c r="J1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2198,14 +2196,14 @@
         <v>63033</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D2" s="12"/>
       <c r="F2" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>297</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>298</v>
       </c>
       <c r="H2">
         <v>23498</v>
@@ -2219,14 +2217,14 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C3" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D3" s="12"/>
       <c r="F3" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>300</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>301</v>
       </c>
       <c r="H3">
         <v>14278</v>
@@ -2246,14 +2244,14 @@
         <v>95207</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D4" s="12"/>
       <c r="F4" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>303</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>304</v>
       </c>
       <c r="H4">
         <v>24239</v>
@@ -2267,14 +2265,14 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D5" s="12"/>
       <c r="F5" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>306</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>307</v>
       </c>
       <c r="H5">
         <v>14782</v>
@@ -2294,14 +2292,14 @@
         <v>14003</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D6" s="12"/>
       <c r="F6" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>309</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>310</v>
       </c>
       <c r="H6">
         <v>24971</v>
@@ -2315,14 +2313,14 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D7" s="12"/>
       <c r="F7" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>312</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>313</v>
       </c>
       <c r="H7">
         <v>15321</v>
@@ -2342,14 +2340,14 @@
         <v>20099</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D8" s="12"/>
       <c r="F8" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>315</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>316</v>
       </c>
       <c r="H8">
         <v>25690</v>
@@ -2363,14 +2361,14 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C9" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D9" s="12"/>
       <c r="F9" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>318</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>319</v>
       </c>
       <c r="H9">
         <v>15895</v>
@@ -2390,14 +2388,14 @@
         <v>28215</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D10" s="12"/>
       <c r="F10" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>321</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>322</v>
       </c>
       <c r="H10">
         <v>26393</v>
@@ -2411,14 +2409,14 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C11" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D11" s="12"/>
       <c r="F11" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>324</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>325</v>
       </c>
       <c r="H11">
         <v>16508</v>
@@ -2438,14 +2436,14 @@
         <v>38803</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D12" s="12"/>
       <c r="F12" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>327</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>328</v>
       </c>
       <c r="H12">
         <v>27069</v>
@@ -2459,14 +2457,14 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C13" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D13" s="12"/>
       <c r="F13" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>330</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>331</v>
       </c>
       <c r="H13">
         <v>17161</v>
@@ -2486,14 +2484,14 @@
         <v>52368</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D14" s="12"/>
       <c r="F14" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>333</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>334</v>
       </c>
       <c r="H14">
         <v>27707</v>
@@ -2507,14 +2505,14 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C15" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D15" s="12"/>
       <c r="F15" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>336</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>337</v>
       </c>
       <c r="H15">
         <v>17856</v>
@@ -2534,14 +2532,14 @@
         <v>69452</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D16" s="12"/>
       <c r="F16" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>339</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>340</v>
       </c>
       <c r="H16">
         <v>28289</v>
@@ -2555,14 +2553,14 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C17" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D17" s="12"/>
       <c r="F17" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>342</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>343</v>
       </c>
       <c r="H17">
         <v>18596</v>
@@ -2582,14 +2580,14 @@
         <v>90636</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D18" s="12"/>
       <c r="F18" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>345</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>346</v>
       </c>
       <c r="H18">
         <v>28801</v>
@@ -2603,14 +2601,14 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C19" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D19" s="12"/>
       <c r="F19" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>348</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>349</v>
       </c>
       <c r="H19">
         <v>19382</v>
@@ -2630,14 +2628,14 @@
         <v>11653</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D20" s="12"/>
       <c r="F20" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="G20" s="12" t="s">
         <v>351</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>352</v>
       </c>
       <c r="H20">
         <v>29238</v>
@@ -2651,14 +2649,14 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C21" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D21" s="12"/>
       <c r="F21" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>354</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>355</v>
       </c>
       <c r="H21">
         <v>20219</v>
@@ -2678,14 +2676,14 @@
         <v>14776</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D22" s="12"/>
       <c r="F22" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>357</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>358</v>
       </c>
       <c r="H22">
         <v>29610</v>
@@ -2699,14 +2697,14 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C23" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D23" s="12"/>
       <c r="F23" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>360</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>361</v>
       </c>
       <c r="H23">
         <v>21109</v>
@@ -2726,14 +2724,14 @@
         <v>18499</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D24" s="12"/>
       <c r="F24" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>363</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>364</v>
       </c>
       <c r="H24">
         <v>29941</v>
@@ -2747,14 +2745,14 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C25" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D25" s="12"/>
       <c r="F25" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>366</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>367</v>
       </c>
       <c r="H25">
         <v>22061</v>
@@ -2774,14 +2772,14 @@
         <v>22890</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D26" s="12"/>
       <c r="F26" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="G26" s="12" t="s">
         <v>369</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>370</v>
       </c>
       <c r="H26">
         <v>30274</v>
@@ -2795,14 +2793,14 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C27" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D27" s="12"/>
       <c r="F27" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="G27" s="12" t="s">
         <v>372</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>373</v>
       </c>
       <c r="H27">
         <v>23085</v>
@@ -2822,14 +2820,14 @@
         <v>28023</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D28" s="12"/>
       <c r="F28" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>375</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>376</v>
       </c>
       <c r="H28">
         <v>30654</v>
@@ -2843,14 +2841,14 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C29" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D29" s="12"/>
       <c r="F29" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="G29" s="12" t="s">
         <v>378</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>379</v>
       </c>
       <c r="H29">
         <v>24199</v>
@@ -2870,14 +2868,14 @@
         <v>33976</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D30" s="12"/>
       <c r="F30" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="G30" s="12" t="s">
         <v>381</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>382</v>
       </c>
       <c r="H30">
         <v>31132</v>
@@ -2891,14 +2889,14 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C31" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D31" s="12"/>
       <c r="F31" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="G31" s="12" t="s">
         <v>384</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>385</v>
       </c>
       <c r="H31">
         <v>25438</v>
@@ -2918,14 +2916,14 @@
         <v>40839</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D32" s="12"/>
       <c r="F32" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="G32" s="12" t="s">
         <v>387</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>388</v>
       </c>
       <c r="H32">
         <v>31773</v>
@@ -2939,14 +2937,14 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C33" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D33" s="12"/>
       <c r="F33" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="G33" s="12" t="s">
         <v>390</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>391</v>
       </c>
       <c r="H33">
         <v>26868</v>
@@ -2966,14 +2964,14 @@
         <v>48719</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D34" s="12"/>
       <c r="F34" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="G34" s="12" t="s">
         <v>393</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>394</v>
       </c>
       <c r="H34">
         <v>32735</v>
@@ -2987,14 +2985,14 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C35" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D35" s="12"/>
       <c r="F35" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="G35" s="12" t="s">
         <v>396</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>397</v>
       </c>
       <c r="H35">
         <v>28662</v>
@@ -3014,14 +3012,14 @@
         <v>57767</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D36" s="12"/>
       <c r="F36" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="G36" s="12" t="s">
         <v>399</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>400</v>
       </c>
       <c r="H36">
         <v>34620</v>
@@ -3035,14 +3033,14 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C37" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D37" s="12"/>
       <c r="F37" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="G37" s="12" t="s">
         <v>402</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>403</v>
       </c>
       <c r="H37">
         <v>31586</v>
@@ -3062,14 +3060,14 @@
         <v>62680</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D38" s="12"/>
       <c r="F38" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="G38" s="12" t="s">
         <v>405</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -3080,14 +3078,14 @@
         <v>1</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D39" s="12"/>
       <c r="F39" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="G39" s="12" t="s">
         <v>408</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>409</v>
       </c>
       <c r="H39">
         <v>16931</v>
@@ -3101,19 +3099,19 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C40" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="D40" s="12" t="s">
         <v>410</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>411</v>
       </c>
       <c r="E40">
         <v>3</v>
       </c>
       <c r="F40" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="G40" s="12" t="s">
         <v>412</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>413</v>
       </c>
       <c r="H40">
         <v>10518</v>
@@ -3133,14 +3131,14 @@
         <v>2</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D41" s="12"/>
       <c r="F41" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="G41" s="12" t="s">
         <v>415</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>416</v>
       </c>
       <c r="H41">
         <v>17304</v>
@@ -3154,19 +3152,19 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C42" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E42">
         <v>3</v>
       </c>
       <c r="F42" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="G42" s="12" t="s">
         <v>418</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>419</v>
       </c>
       <c r="H42">
         <v>10740</v>
@@ -3186,14 +3184,14 @@
         <v>4</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D43" s="12"/>
       <c r="F43" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="G43" s="12" t="s">
         <v>421</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>422</v>
       </c>
       <c r="H43">
         <v>17734</v>
@@ -3207,19 +3205,19 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C44" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E44">
         <v>3</v>
       </c>
       <c r="F44" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="G44" s="12" t="s">
         <v>424</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>425</v>
       </c>
       <c r="H44">
         <v>10987</v>
@@ -3239,14 +3237,14 @@
         <v>6</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D45" s="12"/>
       <c r="F45" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="G45" s="12" t="s">
         <v>427</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>428</v>
       </c>
       <c r="H45">
         <v>18013</v>
@@ -3260,14 +3258,14 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C46" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D46" s="12"/>
       <c r="F46" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="G46" s="12" t="s">
         <v>430</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>431</v>
       </c>
       <c r="H46">
         <v>11145</v>
@@ -3287,14 +3285,14 @@
         <v>8</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D47" s="12"/>
       <c r="F47" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="G47" s="12" t="s">
         <v>433</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>434</v>
       </c>
       <c r="H47">
         <v>18225</v>
@@ -3308,14 +3306,14 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C48" s="12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D48" s="12"/>
       <c r="F48" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="G48" s="12" t="s">
         <v>436</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>437</v>
       </c>
       <c r="H48">
         <v>11263</v>
@@ -3335,14 +3333,14 @@
         <v>1</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D49" s="12"/>
       <c r="F49" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="G49" s="12" t="s">
         <v>439</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>440</v>
       </c>
       <c r="H49">
         <v>18398</v>
@@ -3356,14 +3354,14 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C50" s="12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D50" s="12"/>
       <c r="F50" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="G50" s="12" t="s">
         <v>442</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>443</v>
       </c>
       <c r="H50">
         <v>11359</v>
@@ -3383,14 +3381,14 @@
         <v>2</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D51" s="12"/>
       <c r="F51" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="G51" s="12" t="s">
         <v>445</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>446</v>
       </c>
       <c r="H51">
         <v>18988</v>
@@ -3404,14 +3402,14 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C52" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D52" s="12"/>
       <c r="F52" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="G52" s="12" t="s">
         <v>448</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>449</v>
       </c>
       <c r="H52">
         <v>11684</v>
@@ -3431,14 +3429,14 @@
         <v>4</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D53" s="12"/>
       <c r="F53" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="G53" s="12" t="s">
         <v>451</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>452</v>
       </c>
       <c r="H53">
         <v>19667</v>
@@ -3452,14 +3450,14 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C54" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D54" s="12"/>
       <c r="F54" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="G54" s="12" t="s">
         <v>454</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>455</v>
       </c>
       <c r="H54">
         <v>12054</v>
@@ -3479,14 +3477,14 @@
         <v>6</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D55" s="12"/>
       <c r="F55" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="G55" s="12" t="s">
         <v>457</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>458</v>
       </c>
       <c r="H55">
         <v>20111</v>
@@ -3500,14 +3498,14 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C56" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D56" s="12"/>
       <c r="F56" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="G56" s="12" t="s">
         <v>460</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>461</v>
       </c>
       <c r="H56">
         <v>12296</v>
@@ -3527,14 +3525,14 @@
         <v>8</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D57" s="12"/>
       <c r="F57" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="G57" s="12" t="s">
         <v>463</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>464</v>
       </c>
       <c r="H57">
         <v>20450</v>
@@ -3548,14 +3546,14 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C58" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D58" s="12"/>
       <c r="F58" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="G58" s="12" t="s">
         <v>466</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>467</v>
       </c>
       <c r="H58">
         <v>12481</v>
@@ -3575,14 +3573,14 @@
         <v>1</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D59" s="12"/>
       <c r="F59" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="G59" s="12" t="s">
         <v>469</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>470</v>
       </c>
       <c r="H59">
         <v>20726</v>
@@ -3596,14 +3594,14 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C60" s="12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D60" s="12"/>
       <c r="F60" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="G60" s="12" t="s">
         <v>472</v>
-      </c>
-      <c r="G60" s="12" t="s">
-        <v>473</v>
       </c>
       <c r="H60">
         <v>12633</v>
@@ -3623,14 +3621,14 @@
         <v>2</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D61" s="12"/>
       <c r="F61" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="G61" s="12" t="s">
         <v>475</v>
-      </c>
-      <c r="G61" s="12" t="s">
-        <v>476</v>
       </c>
       <c r="H61">
         <v>21665</v>
@@ -3644,14 +3642,14 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C62" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D62" s="12"/>
       <c r="F62" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="G62" s="12" t="s">
         <v>478</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>479</v>
       </c>
       <c r="H62">
         <v>13160</v>
@@ -3671,14 +3669,14 @@
         <v>3</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D63" s="12"/>
       <c r="F63" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="G63" s="12" t="s">
         <v>481</v>
-      </c>
-      <c r="G63" s="12" t="s">
-        <v>482</v>
       </c>
       <c r="H63">
         <v>22273</v>
@@ -3692,14 +3690,14 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C64" s="12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D64" s="12"/>
       <c r="F64" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="G64" s="12" t="s">
         <v>484</v>
-      </c>
-      <c r="G64" s="12" t="s">
-        <v>485</v>
       </c>
       <c r="H64">
         <v>13514</v>
@@ -3719,14 +3717,14 @@
         <v>4</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D65" s="12"/>
       <c r="F65" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="G65" s="12" t="s">
         <v>487</v>
-      </c>
-      <c r="G65" s="12" t="s">
-        <v>488</v>
       </c>
       <c r="H65">
         <v>22731</v>
@@ -3740,14 +3738,14 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C66" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D66" s="12"/>
       <c r="F66" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="G66" s="12" t="s">
         <v>490</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>491</v>
       </c>
       <c r="H66">
         <v>13791</v>
@@ -3771,7 +3769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4099A1DA-1070-4AAD-9F0D-E964EB51B2DD}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -3799,10 +3797,10 @@
         <v>63033.000000000007</v>
       </c>
       <c r="C2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3813,10 +3811,10 @@
         <v>95207</v>
       </c>
       <c r="C3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -3827,10 +3825,10 @@
         <v>140030</v>
       </c>
       <c r="C4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -3841,10 +3839,10 @@
         <v>200990</v>
       </c>
       <c r="C5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -3855,10 +3853,10 @@
         <v>282150</v>
       </c>
       <c r="C6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -3869,10 +3867,10 @@
         <v>388030</v>
       </c>
       <c r="C7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -3883,10 +3881,10 @@
         <v>523680.00000000006</v>
       </c>
       <c r="C8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -3897,10 +3895,10 @@
         <v>694520</v>
       </c>
       <c r="C9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -3911,10 +3909,10 @@
         <v>906360</v>
       </c>
       <c r="C10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -3925,10 +3923,10 @@
         <v>1165300</v>
       </c>
       <c r="C11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -3939,10 +3937,10 @@
         <v>1477600</v>
       </c>
       <c r="C12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -3953,10 +3951,10 @@
         <v>1849900</v>
       </c>
       <c r="C13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -3967,10 +3965,10 @@
         <v>2289000</v>
       </c>
       <c r="C14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -3981,10 +3979,10 @@
         <v>2802300</v>
       </c>
       <c r="C15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -3995,10 +3993,10 @@
         <v>3397600</v>
       </c>
       <c r="C16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -4009,10 +4007,10 @@
         <v>4083900</v>
       </c>
       <c r="C17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -4023,10 +4021,10 @@
         <v>4871900</v>
       </c>
       <c r="C18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -4037,10 +4035,10 @@
         <v>5776700</v>
       </c>
       <c r="C19" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D19" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -4453,7 +4451,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>1000000</v>
@@ -4467,7 +4465,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>1317000</v>
@@ -4481,7 +4479,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>1856000</v>
@@ -4495,7 +4493,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>2552000</v>
@@ -4509,7 +4507,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>3430000</v>
@@ -4523,7 +4521,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>4518000</v>
@@ -4537,7 +4535,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>5848000</v>
@@ -4551,7 +4549,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>7449000</v>
@@ -4565,7 +4563,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>9355000</v>
@@ -4579,7 +4577,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>11600000</v>
@@ -4593,7 +4591,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>14220000</v>
@@ -4607,7 +4605,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>17250000</v>
@@ -4621,7 +4619,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>20750000</v>
@@ -4635,7 +4633,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>24750000</v>
@@ -4649,7 +4647,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>26950000</v>
@@ -4663,7 +4661,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>29310000</v>
@@ -4677,7 +4675,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>29790000</v>
@@ -4691,7 +4689,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>30290000</v>
@@ -4705,7 +4703,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>30790000</v>
@@ -4719,7 +4717,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>31300000</v>
@@ -4733,7 +4731,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>31810000</v>
@@ -4747,7 +4745,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>32330000</v>
@@ -4761,7 +4759,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>32860000</v>
@@ -4775,7 +4773,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>33400000</v>
@@ -4789,7 +4787,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>33940000</v>
@@ -4803,7 +4801,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>34490000</v>
@@ -4817,7 +4815,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>35040000</v>
@@ -4831,7 +4829,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>35600000</v>
@@ -4845,7 +4843,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>36170000</v>
@@ -4859,7 +4857,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>36460000</v>
@@ -4873,7 +4871,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>36750000</v>
@@ -4887,7 +4885,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>37040000</v>
@@ -4901,7 +4899,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>37470000</v>
@@ -4940,45 +4938,45 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" t="s">
         <v>146</v>
       </c>
-      <c r="E1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>148</v>
-      </c>
-      <c r="G1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H1" t="s">
-        <v>149</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>41</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>42</v>
-      </c>
-      <c r="F2" t="s">
-        <v>43</v>
       </c>
       <c r="G2">
         <v>132230</v>
@@ -4987,30 +4985,30 @@
         <v>995978</v>
       </c>
       <c r="I2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J2" t="s">
         <v>150</v>
-      </c>
-      <c r="J2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>46</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>47</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>48</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
       </c>
       <c r="G3">
         <v>132115</v>
@@ -5019,30 +5017,30 @@
         <v>994523</v>
       </c>
       <c r="I3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J3" t="s">
         <v>152</v>
-      </c>
-      <c r="J3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
         <v>50</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>53</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>54</v>
-      </c>
-      <c r="F4" t="s">
-        <v>55</v>
       </c>
       <c r="G4">
         <v>131987</v>
@@ -5051,30 +5049,30 @@
         <v>992682</v>
       </c>
       <c r="I4" t="s">
+        <v>153</v>
+      </c>
+      <c r="J4" t="s">
         <v>154</v>
-      </c>
-      <c r="J4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>57</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>58</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>59</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>60</v>
-      </c>
-      <c r="F5" t="s">
-        <v>61</v>
       </c>
       <c r="G5">
         <v>131842</v>
@@ -5083,30 +5081,30 @@
         <v>990391</v>
       </c>
       <c r="I5" t="s">
+        <v>155</v>
+      </c>
+      <c r="J5" t="s">
         <v>156</v>
-      </c>
-      <c r="J5" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
         <v>62</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>63</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>64</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>65</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>66</v>
-      </c>
-      <c r="F6" t="s">
-        <v>67</v>
       </c>
       <c r="G6">
         <v>131677</v>
@@ -5115,30 +5113,30 @@
         <v>987583</v>
       </c>
       <c r="I6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J6" t="s">
         <v>158</v>
-      </c>
-      <c r="J6" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
         <v>68</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>69</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>70</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>71</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>72</v>
-      </c>
-      <c r="F7" t="s">
-        <v>73</v>
       </c>
       <c r="G7">
         <v>131490</v>
@@ -5147,30 +5145,30 @@
         <v>984194</v>
       </c>
       <c r="I7" t="s">
+        <v>159</v>
+      </c>
+      <c r="J7" t="s">
         <v>160</v>
-      </c>
-      <c r="J7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
         <v>74</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>75</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>76</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>77</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>78</v>
-      </c>
-      <c r="F8" t="s">
-        <v>79</v>
       </c>
       <c r="G8">
         <v>131281</v>
@@ -5179,30 +5177,30 @@
         <v>980155</v>
       </c>
       <c r="I8" t="s">
+        <v>161</v>
+      </c>
+      <c r="J8" t="s">
         <v>162</v>
-      </c>
-      <c r="J8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" t="s">
         <v>80</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>81</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>82</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>83</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>84</v>
-      </c>
-      <c r="F9" t="s">
-        <v>85</v>
       </c>
       <c r="G9">
         <v>131047</v>
@@ -5211,30 +5209,30 @@
         <v>975401</v>
       </c>
       <c r="I9" t="s">
+        <v>163</v>
+      </c>
+      <c r="J9" t="s">
         <v>164</v>
-      </c>
-      <c r="J9" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" t="s">
         <v>86</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>87</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>88</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>89</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>90</v>
-      </c>
-      <c r="F10" t="s">
-        <v>91</v>
       </c>
       <c r="G10">
         <v>130791</v>
@@ -5243,30 +5241,30 @@
         <v>969869</v>
       </c>
       <c r="I10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J10" t="s">
         <v>166</v>
-      </c>
-      <c r="J10" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
         <v>92</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>93</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>94</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>95</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>96</v>
-      </c>
-      <c r="F11" t="s">
-        <v>97</v>
       </c>
       <c r="G11">
         <v>130514</v>
@@ -5275,30 +5273,30 @@
         <v>963499</v>
       </c>
       <c r="I11" t="s">
+        <v>167</v>
+      </c>
+      <c r="J11" t="s">
         <v>168</v>
-      </c>
-      <c r="J11" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" t="s">
         <v>98</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>99</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>100</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>101</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>102</v>
-      </c>
-      <c r="F12" t="s">
-        <v>103</v>
       </c>
       <c r="G12">
         <v>130220</v>
@@ -5307,30 +5305,30 @@
         <v>956235</v>
       </c>
       <c r="I12" t="s">
+        <v>169</v>
+      </c>
+      <c r="J12" t="s">
         <v>170</v>
-      </c>
-      <c r="J12" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" t="s">
         <v>104</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>105</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>106</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>107</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>108</v>
-      </c>
-      <c r="F13" t="s">
-        <v>109</v>
       </c>
       <c r="G13">
         <v>129914</v>
@@ -5339,30 +5337,30 @@
         <v>948023</v>
       </c>
       <c r="I13" t="s">
+        <v>171</v>
+      </c>
+      <c r="J13" t="s">
         <v>172</v>
-      </c>
-      <c r="J13" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" t="s">
         <v>110</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>111</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>112</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>113</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>114</v>
-      </c>
-      <c r="F14" t="s">
-        <v>115</v>
       </c>
       <c r="G14">
         <v>129602</v>
@@ -5371,30 +5369,30 @@
         <v>938814</v>
       </c>
       <c r="I14" t="s">
+        <v>173</v>
+      </c>
+      <c r="J14" t="s">
         <v>174</v>
-      </c>
-      <c r="J14" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" t="s">
         <v>116</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>117</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>118</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>119</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>120</v>
-      </c>
-      <c r="F15" t="s">
-        <v>121</v>
       </c>
       <c r="G15">
         <v>129289</v>
@@ -5403,30 +5401,30 @@
         <v>928559</v>
       </c>
       <c r="I15" t="s">
+        <v>175</v>
+      </c>
+      <c r="J15" t="s">
         <v>176</v>
-      </c>
-      <c r="J15" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B16" t="s">
         <v>122</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>123</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>124</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>125</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>126</v>
-      </c>
-      <c r="F16" t="s">
-        <v>127</v>
       </c>
       <c r="G16">
         <v>128983</v>
@@ -5435,30 +5433,30 @@
         <v>917210</v>
       </c>
       <c r="I16" t="s">
+        <v>177</v>
+      </c>
+      <c r="J16" t="s">
         <v>178</v>
-      </c>
-      <c r="J16" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" t="s">
         <v>128</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>129</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>130</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>131</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>132</v>
-      </c>
-      <c r="F17" t="s">
-        <v>133</v>
       </c>
       <c r="G17">
         <v>128692</v>
@@ -5467,30 +5465,30 @@
         <v>904719</v>
       </c>
       <c r="I17" t="s">
+        <v>179</v>
+      </c>
+      <c r="J17" t="s">
         <v>180</v>
-      </c>
-      <c r="J17" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" t="s">
         <v>134</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>135</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>136</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>137</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>138</v>
-      </c>
-      <c r="F18" t="s">
-        <v>139</v>
       </c>
       <c r="G18">
         <v>128426</v>
@@ -5499,30 +5497,30 @@
         <v>891035</v>
       </c>
       <c r="I18" t="s">
+        <v>181</v>
+      </c>
+      <c r="J18" t="s">
         <v>182</v>
-      </c>
-      <c r="J18" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" t="s">
         <v>140</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>141</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>142</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>143</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>144</v>
-      </c>
-      <c r="F19" t="s">
-        <v>145</v>
       </c>
       <c r="G19">
         <v>128196</v>
@@ -5531,10 +5529,10 @@
         <v>876100</v>
       </c>
       <c r="I19" t="s">
+        <v>183</v>
+      </c>
+      <c r="J19" t="s">
         <v>184</v>
-      </c>
-      <c r="J19" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -5558,7 +5556,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -5674,10 +5672,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" t="s">
         <v>190</v>
-      </c>
-      <c r="B1" t="s">
-        <v>191</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -5688,13 +5686,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" t="s">
         <v>192</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>193</v>
-      </c>
-      <c r="C2" t="s">
-        <v>194</v>
       </c>
       <c r="D2">
         <v>423.15</v>
@@ -5702,13 +5700,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" t="s">
         <v>195</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>196</v>
-      </c>
-      <c r="C3" t="s">
-        <v>197</v>
       </c>
       <c r="D3">
         <v>423.15</v>
@@ -5716,13 +5714,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" t="s">
         <v>198</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>199</v>
-      </c>
-      <c r="C4" t="s">
-        <v>200</v>
       </c>
       <c r="D4">
         <v>423.15</v>
@@ -5730,13 +5728,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" t="s">
         <v>201</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>202</v>
-      </c>
-      <c r="C5" t="s">
-        <v>203</v>
       </c>
       <c r="D5">
         <v>423.15</v>
@@ -5744,13 +5742,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" t="s">
         <v>204</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>205</v>
-      </c>
-      <c r="C6" t="s">
-        <v>206</v>
       </c>
       <c r="D6">
         <v>423.15</v>
@@ -5758,13 +5756,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" t="s">
         <v>207</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>208</v>
-      </c>
-      <c r="C7" t="s">
-        <v>209</v>
       </c>
       <c r="D7">
         <v>423.15</v>
@@ -5772,13 +5770,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" t="s">
         <v>210</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>211</v>
-      </c>
-      <c r="C8" t="s">
-        <v>212</v>
       </c>
       <c r="D8">
         <v>423.15</v>
@@ -5786,13 +5784,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" t="s">
         <v>213</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>214</v>
-      </c>
-      <c r="C9" t="s">
-        <v>215</v>
       </c>
       <c r="D9">
         <v>423.15</v>
@@ -5800,13 +5798,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" t="s">
         <v>216</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>217</v>
-      </c>
-      <c r="C10" t="s">
-        <v>218</v>
       </c>
       <c r="D10">
         <v>473.15</v>
@@ -5814,13 +5812,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" t="s">
         <v>219</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>220</v>
-      </c>
-      <c r="C11" t="s">
-        <v>221</v>
       </c>
       <c r="D11">
         <v>473.15</v>
@@ -5828,13 +5826,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B12" t="s">
         <v>222</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>223</v>
-      </c>
-      <c r="C12" t="s">
-        <v>224</v>
       </c>
       <c r="D12">
         <v>473.15</v>
@@ -5842,13 +5840,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" t="s">
         <v>225</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>226</v>
-      </c>
-      <c r="C13" t="s">
-        <v>227</v>
       </c>
       <c r="D13">
         <v>473.15</v>
@@ -5856,13 +5854,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>227</v>
+      </c>
+      <c r="B14" t="s">
         <v>228</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>229</v>
-      </c>
-      <c r="C14" t="s">
-        <v>230</v>
       </c>
       <c r="D14">
         <v>473.15</v>
@@ -5870,13 +5868,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B15" t="s">
         <v>231</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>232</v>
-      </c>
-      <c r="C15" t="s">
-        <v>233</v>
       </c>
       <c r="D15">
         <v>473.15</v>
@@ -5884,13 +5882,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" t="s">
         <v>234</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>235</v>
-      </c>
-      <c r="C16" t="s">
-        <v>236</v>
       </c>
       <c r="D16">
         <v>473.15</v>
@@ -5898,13 +5896,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B17" t="s">
         <v>237</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>238</v>
-      </c>
-      <c r="C17" t="s">
-        <v>239</v>
       </c>
       <c r="D17">
         <v>523.15</v>
@@ -5912,13 +5910,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>239</v>
+      </c>
+      <c r="B18" t="s">
         <v>240</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>241</v>
-      </c>
-      <c r="C18" t="s">
-        <v>242</v>
       </c>
       <c r="D18">
         <v>523.15</v>
@@ -5926,13 +5924,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" t="s">
         <v>243</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>244</v>
-      </c>
-      <c r="C19" t="s">
-        <v>245</v>
       </c>
       <c r="D19">
         <v>523.15</v>
@@ -5940,13 +5938,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>245</v>
+      </c>
+      <c r="B20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" t="s">
         <v>246</v>
-      </c>
-      <c r="B20" t="s">
-        <v>189</v>
-      </c>
-      <c r="C20" t="s">
-        <v>247</v>
       </c>
       <c r="D20">
         <v>523.15</v>
@@ -5954,13 +5952,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B21" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" t="s">
         <v>248</v>
-      </c>
-      <c r="C21" t="s">
-        <v>249</v>
       </c>
       <c r="D21">
         <v>523.15</v>
@@ -5968,13 +5966,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>249</v>
+      </c>
+      <c r="B22" t="s">
         <v>250</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>251</v>
-      </c>
-      <c r="C22" t="s">
-        <v>252</v>
       </c>
       <c r="D22">
         <v>523.15</v>
@@ -5997,10 +5995,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" t="s">
         <v>253</v>
-      </c>
-      <c r="B1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -6132,13 +6130,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -6146,142 +6144,142 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" t="s">
         <v>255</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>256</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>257</v>
-      </c>
-      <c r="D2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" t="s">
         <v>259</v>
       </c>
-      <c r="B3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>260</v>
-      </c>
-      <c r="D3" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" t="s">
         <v>262</v>
       </c>
-      <c r="B4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>263</v>
-      </c>
-      <c r="D4" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" t="s">
         <v>265</v>
-      </c>
-      <c r="B5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D5" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" t="s">
         <v>267</v>
       </c>
-      <c r="B6" t="s">
-        <v>256</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>268</v>
-      </c>
-      <c r="D6" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" t="s">
         <v>270</v>
       </c>
-      <c r="B7" t="s">
-        <v>256</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>271</v>
-      </c>
-      <c r="D7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" t="s">
         <v>273</v>
       </c>
-      <c r="B8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>274</v>
-      </c>
-      <c r="D8" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" t="s">
         <v>276</v>
       </c>
-      <c r="B9" t="s">
-        <v>256</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>277</v>
-      </c>
-      <c r="D9" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" t="s">
         <v>279</v>
       </c>
-      <c r="B10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>280</v>
-      </c>
-      <c r="D10" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" t="s">
         <v>282</v>
       </c>
-      <c r="B11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>283</v>
-      </c>
-      <c r="D11" t="s">
-        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -6304,7 +6302,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
